--- a/biology/Zoologie/Arctosa_jibarosa/Arctosa_jibarosa.xlsx
+++ b/biology/Zoologie/Arctosa_jibarosa/Arctosa_jibarosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arctosa jibarosa est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arctosa jibarosa est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans les région de San Martín, de Huánuco, de Junín, de Cuzco et de Madre de Dios, en Équateur dans la province de Napo et en Colombie dans le département de Meta[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou dans les région de San Martín, de Huánuco, de Junín, de Cuzco et de Madre de Dios, en Équateur dans la province de Napo et en Colombie dans le département de Meta,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,08 mm et la femelle paratype 4,25 mm, les mâles mesurent de 3,41 à 4,08 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,08 mm et la femelle paratype 4,25 mm, les mâles mesurent de 3,41 à 4,08 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Paredes-Munguía, Brescovit et Teixeira en 2024.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Jivaros[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Jivaros. 
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paredes-Munguía, Brescovit &amp; Teixeira, 2024 : « Revision of Neotropical wolf spider genus Arctosa C.L. Koch, 1847 (Araneae: Lycosidae), with description of seven new species. » Zootaxa, no 5414(1), p. 1-83.</t>
         </is>
